--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709975.975041038</v>
+        <v>710760.1209790664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -665,55 +667,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.7173798661023</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>29.7037198393344</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,50 +904,50 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>174.144071639526</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.78557832229613</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>143.7773912969451</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>46.54968785507688</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>30.65343945508051</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>54.97933811727043</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1707,7 +1709,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1901,10 +1903,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>232.3303155802432</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>74.86316388281884</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>73.6514903637101</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2315,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G23" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,16 +2450,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>32.02729053745304</v>
+        <v>39.45698165390586</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>140.6670292695909</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.7923727229347</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>2.931364872526949</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,61 +2949,61 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.66067414728059</v>
+        <v>17.80938273601444</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,25 +3271,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.687115281373653</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3396,10 +3398,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>120.1190775319706</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>50.84150945985687</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3828,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.220806784022289</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>80.86228322859418</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>184.9058847316063</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>447.0863026981896</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>239.4925204373003</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4331,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4361,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>483.304308631649</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="X3" t="n">
-        <v>224.7893424687375</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>275.7105263707597</v>
       </c>
     </row>
     <row r="4">
@@ -4510,25 +4512,25 @@
         <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.9807105651552</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>230.9807105651552</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D5" t="n">
-        <v>230.9807105651552</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E5" t="n">
-        <v>230.9807105651552</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4592,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>438.5744928260445</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>230.9807105651552</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.9807105651552</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4647,13 +4649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X6" t="n">
-        <v>441.0602509429012</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y6" t="n">
-        <v>233.4664686820119</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.792197863116</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>189.1984156022267</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>189.1984156022267</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>189.1984156022267</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
         <v>28.51141680214578</v>
@@ -4811,7 +4813,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>64.21544693014803</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,43 +4892,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>106.7410566979059</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5051,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
         <v>163.1080096386462</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5196,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5282,16 +5284,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,7 +5363,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
         <v>219.90409354896</v>
@@ -5394,13 +5396,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5433,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5689,13 +5691,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>411.6643294155641</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>411.6643294155641</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>508.4840673845228</v>
       </c>
     </row>
     <row r="22">
@@ -5966,16 +5968,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D23" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F23" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6028,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>657.1194829915109</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="U24" t="n">
-        <v>657.1194829915109</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="V24" t="n">
-        <v>421.9673747597683</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="W24" t="n">
-        <v>178.5185981156682</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="X24" t="n">
-        <v>178.5185981156682</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.5185981156682</v>
+        <v>649.6147444900434</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>720.7997177103998</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>720.7997177103998</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>720.7997177103998</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>485.6476094786571</v>
       </c>
       <c r="W27" t="n">
-        <v>125.0774898247174</v>
+        <v>485.6476094786571</v>
       </c>
       <c r="X27" t="n">
-        <v>125.0774898247174</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.0774898247174</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="28">
@@ -6403,10 +6405,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>307.7005108416342</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C30" t="n">
-        <v>307.7005108416342</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="D30" t="n">
-        <v>158.7661011803829</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>961.0961808919221</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>758.9095862506881</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>758.9095862506881</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>758.9095862506881</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W30" t="n">
-        <v>515.4608096065881</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X30" t="n">
-        <v>515.4608096065881</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y30" t="n">
-        <v>307.7005108416342</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="31">
@@ -6649,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>22.57944215788615</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.04605772994853</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="D33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="E33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="F33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="G33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="H33" t="n">
-        <v>55.04605772994853</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.04605772994853</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>343.8760884571613</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>343.8760884571613</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F35" t="n">
-        <v>343.8760884571613</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>100.4273118130612</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.2693145670932</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C36" t="n">
-        <v>259.2693145670932</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>467.2523720189268</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>308.0149170134713</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>161.4803590403563</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>22.74953362297182</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>467.120814772626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>467.120814772626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>467.120814772626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>259.2693145670932</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.2693145670932</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7117,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W39" t="n">
-        <v>609.3459713618265</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="40">
@@ -7351,13 +7353,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7421,10 +7423,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>159.1797258111137</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.44890039372925</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.44890039372925</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,13 +7496,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7521,19 +7523,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X42" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7673,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="C45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="D45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="E45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>635.2977568121051</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>427.7039745512159</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>427.7039745512159</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>427.7039745512159</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.27987404077794</v>
+        <v>220.1101922903266</v>
       </c>
     </row>
     <row r="46">
@@ -7828,16 +7830,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
         <v>16.44142755506243</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9011,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>279.489774794024</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -10440,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11151,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>92.46572744736832</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23574,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23595,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23789,10 +23791,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>150.4035260832374</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>151.078218198156</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>132.1214948397674</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>168.1374381573686</v>
+        <v>160.7077470409157</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>135.0690668140378</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>32.605133915851</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>31.01614183424695</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24643,13 +24645,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>37.85270773246627</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.7518062313109</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>191.584972997977</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>54.73595870413449</v>
+        <v>71.58725011540064</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,25 +25159,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463982</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1400950999471</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25214,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>109.5483289551228</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>105.8223045490042</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>200.8534737010627</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,10 +25630,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>334.1218923309199</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25716,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>86.17582606739279</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>145.0790988523806</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="44">
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>227.1578098439735</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>130.3791503725255</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15.2588439632153</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26080,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457418.2090217388</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457418.2090217388</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457418.2090217388</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457418.2090217388</v>
+        <v>457418.209021739</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457418.2090217389</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434241.6283824319</v>
+        <v>434241.6283824318</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
@@ -26332,25 +26334,25 @@
         <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="J2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="J2" t="n">
-        <v>191084.7734110323</v>
-      </c>
       <c r="K2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="P2" t="n">
         <v>181421.2881101714</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352202.8557767234</v>
+        <v>352202.8557767235</v>
       </c>
       <c r="C4" t="n">
-        <v>352202.8557767234</v>
+        <v>352202.8557767235</v>
       </c>
       <c r="D4" t="n">
         <v>352202.8557767235</v>
       </c>
       <c r="E4" t="n">
-        <v>63664.98162927535</v>
+        <v>63664.98162927537</v>
       </c>
       <c r="F4" t="n">
         <v>63664.98162927537</v>
@@ -26433,7 +26435,7 @@
         <v>67120.16107081145</v>
       </c>
       <c r="H4" t="n">
-        <v>67120.16107081143</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="I4" t="n">
         <v>67120.16107081145</v>
@@ -26445,7 +26447,7 @@
         <v>67120.16107081145</v>
       </c>
       <c r="L4" t="n">
-        <v>67120.16107081143</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="M4" t="n">
         <v>67120.16107081145</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4899.320371702255</v>
+        <v>4899.320371702233</v>
       </c>
       <c r="C6" t="n">
-        <v>73773.0769533923</v>
+        <v>73773.07695339192</v>
       </c>
       <c r="D6" t="n">
-        <v>73773.07695339207</v>
+        <v>73773.07695339192</v>
       </c>
       <c r="E6" t="n">
         <v>105260.8215390485</v>
@@ -26540,25 +26542,25 @@
         <v>109310.9435764591</v>
       </c>
       <c r="I6" t="n">
+        <v>109310.9435764592</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55538.4326862497</v>
+      </c>
+      <c r="K6" t="n">
         <v>109310.9435764591</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55538.43268624978</v>
-      </c>
-      <c r="K6" t="n">
-        <v>109310.9435764592</v>
       </c>
       <c r="L6" t="n">
         <v>109310.9435764592</v>
       </c>
       <c r="M6" t="n">
-        <v>109310.9435764591</v>
+        <v>109310.9435764592</v>
       </c>
       <c r="N6" t="n">
         <v>109310.9435764592</v>
       </c>
       <c r="O6" t="n">
-        <v>105260.8215390486</v>
+        <v>105260.8215390485</v>
       </c>
       <c r="P6" t="n">
         <v>105260.8215390486</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.2129902061594</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>241.1586658756091</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27433,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>203.0968673100909</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>86.46950422323977</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>175.096897077887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.74760532757121</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27743,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>185.6777949634516</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>263.0986544447663</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>42.84694499633819</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>202.1471476943448</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7477984443889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34711,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N8" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N8" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35650,7 +35652,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>148.1480627106907</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710760.1209790664</v>
+        <v>641401.6501455582</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6868896.516603592</v>
+        <v>6928397.422602168</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="F2" t="n">
-        <v>165.7173798661024</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>29.7037198393344</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>26.16190956546853</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>14.48693373137006</v>
+        <v>12.26379190823967</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>169.0708280266249</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1268,10 +1268,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>30.65343945508051</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.0294181666926</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>54.97933811727043</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>1.197928092376224</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="C15" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,34 +1785,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>38.8773260468239</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>232.3303155802432</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>114.8120867680395</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>73.6514903637101</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,58 +2329,58 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>39.45698165390586</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,11 +2557,11 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2569,61 +2569,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>140.6670292695909</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2797,58 +2797,58 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>119.7923727229347</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>97.61931349302614</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>190.3453970742848</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>88.95742251506753</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>17.80938273601444</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>190.3453970742848</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.687115281373653</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>169.9088723636407</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>24.13118146277895</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.220806784022289</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>11.8674387613478</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>184.9058847316063</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4951893506917</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>483.304308631649</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="W3" t="n">
-        <v>275.7105263707597</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>275.7105263707597</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>275.7105263707597</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>406.8838132313431</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>807.4381113577983</v>
+        <v>850.4999574693404</v>
       </c>
       <c r="U6" t="n">
-        <v>807.4381113577983</v>
+        <v>622.2763392057295</v>
       </c>
       <c r="V6" t="n">
-        <v>599.8443290969091</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="W6" t="n">
-        <v>392.2505468360198</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>443.6989813239244</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y9" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y11" t="n">
-        <v>811.9797623848946</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9018483060073</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C12" t="n">
-        <v>720.9018483060073</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.9018483060073</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>813.547440347533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>664.6130306862817</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>40.6788758079141</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>58.55116942013586</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>58.55116942013586</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.7886244255914</v>
       </c>
     </row>
     <row r="19">
@@ -5694,28 +5694,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>716.2443661494767</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y21" t="n">
-        <v>508.4840673845228</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>481.3994074699755</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>306.9463781888485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>649.6147444900434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>649.6147444900434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>649.6147444900434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>649.6147444900434</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X24" t="n">
-        <v>649.6147444900434</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y24" t="n">
-        <v>649.6147444900434</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="25">
@@ -6168,16 +6168,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
-        <v>710.516763498309</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F26" t="n">
-        <v>710.516763498309</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G26" t="n">
-        <v>467.067986854209</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>720.7997177103998</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>720.7997177103998</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>720.7997177103998</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>485.6476094786571</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>485.6476094786571</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>277.7961092731243</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.7961092731243</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>425.5489231905453</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5489231905453</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="D30" t="n">
-        <v>425.5489231905453</v>
+        <v>277.8780979331268</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>118.6406429276713</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>425.5489231905453</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W30" t="n">
-        <v>425.5489231905453</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X30" t="n">
-        <v>425.5489231905453</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y30" t="n">
-        <v>425.5489231905453</v>
+        <v>426.8125075943781</v>
       </c>
     </row>
     <row r="31">
@@ -6642,13 +6642,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>212.4775805350491</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C33" t="n">
-        <v>38.02455125392211</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D33" t="n">
-        <v>38.02455125392211</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E33" t="n">
-        <v>38.02455125392211</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F33" t="n">
-        <v>38.02455125392211</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G33" t="n">
-        <v>38.02455125392211</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>38.02455125392211</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.6929175551172</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>616.1867816801781</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>467.2523720189268</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0149170134713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>161.4803590403563</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>22.74953362297182</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7025,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7122,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>192.0142610363921</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V39" t="n">
-        <v>360.2295980564601</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W39" t="n">
-        <v>360.2295980564601</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X39" t="n">
-        <v>360.2295980564601</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.2295980564601</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7359,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90708355515102</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D42" t="n">
-        <v>305.7142837842288</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7142837842288</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F42" t="n">
-        <v>159.1797258111137</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G42" t="n">
-        <v>20.44890039372925</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>20.44890039372925</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220.1101922903266</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C45" t="n">
-        <v>220.1101922903266</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="D45" t="n">
-        <v>220.1101922903266</v>
+        <v>31.26845499036202</v>
       </c>
       <c r="E45" t="n">
-        <v>220.1101922903266</v>
+        <v>31.26845499036202</v>
       </c>
       <c r="F45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>635.2977568121051</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>427.7039745512159</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>427.7039745512159</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W45" t="n">
-        <v>427.7039745512159</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X45" t="n">
-        <v>220.1101922903266</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y45" t="n">
-        <v>220.1101922903266</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8777,13 +8777,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2160227667432</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>211.704423496788</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>92.46572744736832</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.0375161441202</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23548,10 +23548,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="C15" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>98.46619111638674</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150.4035260832374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>42.83299368736142</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>132.1214948397674</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>160.7077470409157</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I26" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>10.40164370392489</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>31.01614183424695</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24764,16 +24764,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>37.85270773246627</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>47.44989890035774</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24882,16 +24882,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>191.584972997977</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>68.68765794033341</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>71.58725011540064</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>164.3376445463982</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5483289551228</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.774298740197167</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.70271224139816</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25520,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>110.9575212988315</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>334.1218923309199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>123.3138841018598</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>86.17582606739279</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>133.2017736320361</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>15.2588439632153</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1028235.249660876</v>
+        <v>1013549.386620382</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1028235.249660876</v>
+        <v>1031664.708163641</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1028235.249660876</v>
+        <v>1031664.708163641</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434241.6283824318</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434241.6283824318</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457418.2090217389</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457418.2090217389</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457418.209021739</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457418.2090217389</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434241.6283824318</v>
+        <v>457418.2090217388</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434241.6283824318</v>
+        <v>457418.2090217389</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719628</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>181421.2881101714</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
@@ -26334,28 +26334,28 @@
         <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="J2" t="n">
         <v>191084.7734110323</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="L2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="O2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="P2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="M2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="O2" t="n">
-        <v>181421.2881101713</v>
-      </c>
-      <c r="P2" t="n">
-        <v>181421.2881101714</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352202.8557767235</v>
+        <v>378483.8546560818</v>
       </c>
       <c r="C4" t="n">
-        <v>352202.8557767235</v>
+        <v>346065.6887052709</v>
       </c>
       <c r="D4" t="n">
-        <v>352202.8557767235</v>
+        <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>63664.98162927537</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="F4" t="n">
-        <v>63664.98162927537</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="G4" t="n">
         <v>67120.16107081145</v>
@@ -26456,10 +26456,10 @@
         <v>67120.16107081145</v>
       </c>
       <c r="O4" t="n">
-        <v>63664.98162927537</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="P4" t="n">
-        <v>63664.98162927537</v>
+        <v>67120.16107081145</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4899.320371702233</v>
+        <v>38800.72199267483</v>
       </c>
       <c r="C6" t="n">
-        <v>73773.07695339192</v>
+        <v>17175.73801626213</v>
       </c>
       <c r="D6" t="n">
-        <v>73773.07695339192</v>
+        <v>77752.06020293047</v>
       </c>
       <c r="E6" t="n">
-        <v>105260.8215390485</v>
+        <v>97092.93295641872</v>
       </c>
       <c r="F6" t="n">
-        <v>105260.8215390485</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="G6" t="n">
-        <v>99581.90060229207</v>
+        <v>97092.93295641869</v>
       </c>
       <c r="H6" t="n">
-        <v>109310.9435764591</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="I6" t="n">
-        <v>109310.9435764592</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="J6" t="n">
-        <v>55538.4326862497</v>
+        <v>83091.7008161394</v>
       </c>
       <c r="K6" t="n">
-        <v>109310.9435764591</v>
+        <v>48835.98002278611</v>
       </c>
       <c r="L6" t="n">
-        <v>109310.9435764592</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="M6" t="n">
-        <v>109310.9435764592</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="N6" t="n">
-        <v>109310.9435764592</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="O6" t="n">
-        <v>105260.8215390485</v>
+        <v>97092.93295641866</v>
       </c>
       <c r="P6" t="n">
-        <v>105260.8215390486</v>
+        <v>97092.93295641875</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>356.7365230894554</v>
       </c>
       <c r="F2" t="n">
-        <v>241.1586658756091</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.7774844691157</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>203.0968673100909</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>192.4227437866263</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>191.584972997977</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>234.2826201338976</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>185.6777949634516</v>
+        <v>187.9009367865819</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>201.0263577092824</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>237.8052177150866</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27897,25 +27897,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>202.1471476943448</v>
+        <v>197.051527993195</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35652,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>91.61977832229879</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
